--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>net_idx</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
   </si>
   <si>
     <t>x_1</t>
@@ -585,13 +588,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,8 +646,11 @@
       <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -661,46 +667,49 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
+      <c r="S2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -717,43 +726,46 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3">
         <v>1</v>
+      </c>
+      <c r="S3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -780,34 +792,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -821,37 +833,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\SBMLDiagrams\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF07C46-72B9-4A8D-BA66-6D124DECB3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>net_idx</t>
   </si>
@@ -136,6 +142,9 @@
   </si>
   <si>
     <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
   </si>
   <si>
     <t>r_0</t>
@@ -168,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -278,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,9 +327,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,6 +379,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,14 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -587,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -709,7 +762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -774,14 +827,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,8 +876,11 @@
       <c r="N1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -833,37 +891,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\SBMLDiagrams\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF07C46-72B9-4A8D-BA66-6D124DECB3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>net_idx</t>
   </si>
@@ -145,6 +139,9 @@
   </si>
   <si>
     <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
   </si>
   <si>
     <t>r_0</t>
@@ -177,8 +174,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +238,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -295,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,27 +316,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,24 +350,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,14 +525,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -640,14 +593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -762,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -827,16 +780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,8 +830,11 @@
       <c r="O1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -891,40 +845,43 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>net_idx</t>
   </si>
@@ -84,6 +84,15 @@
     <t>txt_font_size</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>x_1</t>
   </si>
   <si>
@@ -111,6 +120,12 @@
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
+    <t>rectangle</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>sources</t>
   </si>
   <si>
@@ -154,9 +169,6 @@
   </si>
   <si>
     <t>E0 * (k0 * x_1 - k0r * x_0)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[91, 176, 253, 255]</t>
@@ -594,13 +606,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,8 +667,17 @@
       <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -673,40 +694,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -714,8 +735,17 @@
       <c r="S2">
         <v>11</v>
       </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -732,46 +762,55 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
         <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -798,40 +837,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -845,40 +884,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -10,13 +10,14 @@
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
+    <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>net_idx</t>
   </si>
@@ -181,6 +182,9 @@
   </si>
   <si>
     <t>[12.0, 15.0]</t>
+  </si>
+  <si>
+    <t>txt_content</t>
   </si>
 </sst>
 </file>
@@ -926,4 +930,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -11,13 +11,14 @@
     <sheet name="NodeData" sheetId="2" r:id="rId2"/>
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
+    <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>net_idx</t>
   </si>
@@ -46,10 +47,10 @@
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[0.0, 0.0]</t>
-  </si>
-  <si>
-    <t>[1000.0, 1000.0]</t>
+    <t>[0, 0]</t>
+  </si>
+  <si>
+    <t>[1000, 1000]</t>
   </si>
   <si>
     <t>[255, 255, 255, 255]</t>
@@ -963,4 +964,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:9">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C430CB-6FFD-432A-99A0-F5CCAD500119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t>net_idx</t>
   </si>
@@ -186,13 +192,19 @@
   </si>
   <si>
     <t>txt_content</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>[255,255,255,255]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,13 +252,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -255,6 +281,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -301,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,9 +367,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,6 +419,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,14 +612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -610,14 +680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -750,7 +820,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -824,14 +894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>40</v>
@@ -877,8 +949,11 @@
       <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -926,6 +1001,9 @@
       </c>
       <c r="P2" t="b">
         <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -934,14 +1012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
@@ -967,14 +1045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20388"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer-2021\code\SBMLDiagrams\tests\initiate_excel_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C430CB-6FFD-432A-99A0-F5CCAD500119}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="CompartmentData" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>net_idx</t>
   </si>
@@ -50,6 +44,15 @@
     <t>border_width</t>
   </si>
   <si>
+    <t>txt_position</t>
+  </si>
+  <si>
+    <t>txt_size</t>
+  </si>
+  <si>
+    <t>txt_content</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -77,12 +80,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_position</t>
-  </si>
-  <si>
-    <t>txt_size</t>
-  </si>
-  <si>
     <t>txt_font_color</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
     <t>modifiers</t>
   </si>
   <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
     <t>line_thickness</t>
   </si>
   <si>
@@ -185,26 +185,17 @@
     <t>[334.0, 231.0]</t>
   </si>
   <si>
-    <t>[[386.0, 231.0], [386.0, 231.0], [386.0, 231.0]]</t>
+    <t>[[386.0, 231.0], [386.0, 231.0], [282.0, 231.0]]</t>
   </si>
   <si>
     <t>[12.0, 15.0]</t>
-  </si>
-  <si>
-    <t>txt_content</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>[255,255,255,255]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,27 +243,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -281,14 +258,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -335,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,27 +336,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,24 +370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,14 +545,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,8 +577,17 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -656,22 +598,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -680,34 +628,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -716,13 +664,13 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -734,25 +682,28 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -769,40 +720,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -811,16 +762,16 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -837,40 +788,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -879,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -894,16 +845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,96 +863,96 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1012,31 +961,34 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1045,16 +997,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1072,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>net_idx</t>
   </si>
@@ -53,10 +53,22 @@
     <t>txt_content</t>
   </si>
   <si>
+    <t>txt_font_color</t>
+  </si>
+  <si>
+    <t>txt_line_width</t>
+  </si>
+  <si>
+    <t>txt_font_size</t>
+  </si>
+  <si>
+    <t>txt_anchor</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
-    <t>[0, 0]</t>
+    <t>[0.0, 0.0]</t>
   </si>
   <si>
     <t>[1000, 1000]</t>
@@ -65,6 +77,12 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0, 0, 255]</t>
+  </si>
+  <si>
+    <t>['middle', 'middle']</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -80,15 +98,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>txt_font_color</t>
-  </si>
-  <si>
-    <t>txt_line_width</t>
-  </si>
-  <si>
-    <t>txt_font_size</t>
-  </si>
-  <si>
     <t>shape_name</t>
   </si>
   <si>
@@ -120,9 +129,6 @@
   </si>
   <si>
     <t>[255, 108, 9, 255]</t>
-  </si>
-  <si>
-    <t>[0, 0, 0, 255]</t>
   </si>
   <si>
     <t>rectangle</t>
@@ -546,13 +552,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +592,20 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -598,28 +616,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -629,33 +659,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -664,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -682,28 +712,31 @@
         <v>7</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -720,40 +753,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -762,16 +795,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -788,40 +824,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -830,13 +866,16 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -863,40 +902,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
@@ -913,46 +952,46 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -962,13 +1001,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,16 +1018,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1006,7 +1048,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1024,10 +1066,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>net_idx</t>
   </si>
@@ -803,6 +803,9 @@
       <c r="V2" t="s">
         <v>38</v>
       </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
       <c r="X2" t="s">
         <v>20</v>
       </c>
@@ -873,6 +876,9 @@
       </c>
       <c r="V3" t="s">
         <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>20</v>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -12,13 +12,14 @@
     <sheet name="ReactionData" sheetId="3" r:id="rId3"/>
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
+    <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t>net_idx</t>
   </si>
@@ -77,6 +78,9 @@
     <t>[255, 255, 255, 255]</t>
   </si>
   <si>
+    <t>[0, 0.0]</t>
+  </si>
+  <si>
     <t>[0, 0, 0, 255]</t>
   </si>
   <si>
@@ -173,6 +177,15 @@
     <t>rxn_reversible</t>
   </si>
   <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -194,7 +207,28 @@
     <t>[[386.0, 231.0], [386.0, 231.0], [282.0, 231.0]]</t>
   </si>
   <si>
-    <t>[12.0, 15.0]</t>
+    <t>[15.0, 12.0]</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_NONE_']</t>
+  </si>
+  <si>
+    <t>['_line_ending_default_']</t>
+  </si>
+  <si>
+    <t>_line_ending_default_NONE_</t>
+  </si>
+  <si>
+    <t>_line_ending_default_</t>
+  </si>
+  <si>
+    <t>[-15.0, -6.0]</t>
+  </si>
+  <si>
+    <t>['polygon']</t>
+  </si>
+  <si>
+    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
   </si>
 </sst>
 </file>
@@ -637,10 +671,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -649,7 +683,7 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -670,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -694,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -721,13 +755,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -753,40 +787,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -795,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -827,40 +861,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -869,19 +903,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -891,13 +925,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,46 +942,55 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -958,46 +1001,55 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1106,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1072,10 +1124,89 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>net_idx</t>
   </si>
@@ -186,6 +186,15 @@
     <t>modifiers_lineending</t>
   </si>
   <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -213,13 +222,19 @@
     <t>['_line_ending_default_NONE_']</t>
   </si>
   <si>
-    <t>['_line_ending_default_']</t>
+    <t>['line_ending_r_0']</t>
+  </si>
+  <si>
+    <t>[[438.0, 231.0]]</t>
+  </si>
+  <si>
+    <t>[[230.0, 231.0]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
   </si>
   <si>
-    <t>_line_ending_default_</t>
+    <t>line_ending_r_0</t>
   </si>
   <si>
     <t>[-15.0, -6.0]</t>
@@ -925,13 +940,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1004,17 @@
       <c r="T1" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1001,37 +1025,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -1043,12 +1067,21 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="S2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1168,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1191,22 +1224,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t>net_idx</t>
   </si>
@@ -195,6 +195,9 @@
     <t>mod_lineend_position</t>
   </si>
   <si>
+    <t>center_size</t>
+  </si>
+  <si>
     <t>r_0</t>
   </si>
   <si>
@@ -225,10 +228,10 @@
     <t>['line_ending_r_0']</t>
   </si>
   <si>
-    <t>[[438.0, 231.0]]</t>
-  </si>
-  <si>
-    <t>[[230.0, 231.0]]</t>
+    <t>[[410.0, 231.0]]</t>
+  </si>
+  <si>
+    <t>[[258.0, 231.0]]</t>
   </si>
   <si>
     <t>_line_ending_default_NONE_</t>
@@ -243,7 +246,7 @@
     <t>['polygon']</t>
   </si>
   <si>
-    <t>[[[0, 0], [100, 50], [0, 100], [0, 0]]]</t>
+    <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
   </si>
 </sst>
 </file>
@@ -940,13 +943,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1016,20 @@
       <c r="W1" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1025,37 +1040,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
         <v>39</v>
@@ -1067,21 +1082,27 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T2" t="s">
         <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1201,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1224,22 +1245,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -13,13 +13,14 @@
     <sheet name="ArbitraryTextData" sheetId="4" r:id="rId4"/>
     <sheet name="ArbitraryShapeData" sheetId="5" r:id="rId5"/>
     <sheet name="LineEndingData" sheetId="6" r:id="rId6"/>
+    <sheet name="ReactionTextData" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>net_idx</t>
   </si>
@@ -138,78 +139,87 @@
     <t>rectangle</t>
   </si>
   <si>
+    <t>[[0.0, 0.0]]</t>
+  </si>
+  <si>
+    <t>sources</t>
+  </si>
+  <si>
+    <t>targets</t>
+  </si>
+  <si>
+    <t>rate_law</t>
+  </si>
+  <si>
+    <t>modifiers</t>
+  </si>
+  <si>
+    <t>stroke_color</t>
+  </si>
+  <si>
+    <t>line_thickness</t>
+  </si>
+  <si>
+    <t>center_pos</t>
+  </si>
+  <si>
+    <t>handles</t>
+  </si>
+  <si>
+    <t>bezier</t>
+  </si>
+  <si>
+    <t>arrow_head_size</t>
+  </si>
+  <si>
+    <t>rxn_dash</t>
+  </si>
+  <si>
+    <t>rxn_reversible</t>
+  </si>
+  <si>
+    <t>sources_lineending</t>
+  </si>
+  <si>
+    <t>targets_lineending</t>
+  </si>
+  <si>
+    <t>modifiers_lineending</t>
+  </si>
+  <si>
+    <t>src_lineend_position</t>
+  </si>
+  <si>
+    <t>tgt_lineend_position</t>
+  </si>
+  <si>
+    <t>mod_lineend_position</t>
+  </si>
+  <si>
+    <t>center_size</t>
+  </si>
+  <si>
+    <t>src_dash</t>
+  </si>
+  <si>
+    <t>tgt_dash</t>
+  </si>
+  <si>
+    <t>r_0</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>E0 * (k0 * x_1 - k0r * x_0)</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>sources</t>
-  </si>
-  <si>
-    <t>targets</t>
-  </si>
-  <si>
-    <t>rate_law</t>
-  </si>
-  <si>
-    <t>modifiers</t>
-  </si>
-  <si>
-    <t>stroke_color</t>
-  </si>
-  <si>
-    <t>line_thickness</t>
-  </si>
-  <si>
-    <t>center_pos</t>
-  </si>
-  <si>
-    <t>handles</t>
-  </si>
-  <si>
-    <t>bezier</t>
-  </si>
-  <si>
-    <t>arrow_head_size</t>
-  </si>
-  <si>
-    <t>rxn_dash</t>
-  </si>
-  <si>
-    <t>rxn_reversible</t>
-  </si>
-  <si>
-    <t>sources_lineending</t>
-  </si>
-  <si>
-    <t>targets_lineending</t>
-  </si>
-  <si>
-    <t>modifiers_lineending</t>
-  </si>
-  <si>
-    <t>src_lineend_position</t>
-  </si>
-  <si>
-    <t>tgt_lineend_position</t>
-  </si>
-  <si>
-    <t>mod_lineend_position</t>
-  </si>
-  <si>
-    <t>center_size</t>
-  </si>
-  <si>
-    <t>r_0</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>E0 * (k0 * x_1 - k0r * x_0)</t>
-  </si>
-  <si>
     <t>[91, 176, 253, 255]</t>
   </si>
   <si>
@@ -247,6 +257,12 @@
   </si>
   <si>
     <t>[[[0.0, 0.0], [100.0, 50.0], [0.0, 100.0], [0.0, 0.0]]]</t>
+  </si>
+  <si>
+    <t>rxn_id</t>
+  </si>
+  <si>
+    <t>txt_id</t>
   </si>
 </sst>
 </file>
@@ -943,13 +959,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1044,14 @@
       <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1040,40 +1062,40 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -1082,28 +1104,34 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="X2" t="s">
         <v>16</v>
       </c>
       <c r="AA2" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1191,13 +1219,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1216,13 +1244,16 @@
       <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1231,36 +1262,84 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>net_idx</t>
   </si>
@@ -67,6 +67,15 @@
     <t>txt_anchor</t>
   </si>
   <si>
+    <t>shape_name</t>
+  </si>
+  <si>
+    <t>shape_type</t>
+  </si>
+  <si>
+    <t>shape_info</t>
+  </si>
+  <si>
     <t>_compartment_default_</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t>['middle', 'middle']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
     <t>comp_idx</t>
   </si>
   <si>
@@ -103,15 +115,6 @@
     <t>shape_idx</t>
   </si>
   <si>
-    <t>shape_name</t>
-  </si>
-  <si>
-    <t>shape_type</t>
-  </si>
-  <si>
-    <t>shape_info</t>
-  </si>
-  <si>
     <t>x_1</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
   </si>
   <si>
     <t>E0 * (k0 * x_1 - k0r * x_0)</t>
-  </si>
-  <si>
-    <t>[]</t>
   </si>
   <si>
     <t>[91, 176, 253, 255]</t>
@@ -620,13 +620,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +672,17 @@
       <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -684,31 +693,31 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -717,7 +726,10 @@
         <v>11</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -738,22 +750,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -762,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -789,13 +801,13 @@
         <v>13</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
@@ -821,40 +833,40 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -863,19 +875,19 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -895,40 +907,40 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -937,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -976,79 +988,79 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1062,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
         <v>66</v>
@@ -1089,19 +1101,19 @@
         <v>68</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
         <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R2" t="s">
         <v>70</v>
@@ -1110,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="T2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="U2" t="s">
         <v>72</v>
@@ -1119,19 +1131,19 @@
         <v>73</v>
       </c>
       <c r="W2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1188,7 +1200,7 @@
   <sheetData>
     <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -1206,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1239,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -1256,22 +1268,22 @@
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1297,7 +1309,7 @@
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/tests/initiate_excel_files/test.xlsx
+++ b/tests/initiate_excel_files/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>net_idx</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>shape_idx</t>
+  </si>
+  <si>
+    <t>spec_dash</t>
   </si>
   <si>
     <t>x_1</t>
@@ -739,13 +742,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,8 +818,11 @@
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -833,34 +839,34 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -875,22 +881,25 @@
         <v>11</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -907,34 +916,34 @@
         <v>-1</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -949,19 +958,22 @@
         <v>11</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
         <v>24</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -988,64 +1000,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>15</v>
@@ -1057,10 +1069,10 @@
         <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1074,37 +1086,37 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
         <v>25</v>
@@ -1116,19 +1128,19 @@
         <v>21</v>
       </c>
       <c r="R2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>25</v>
       </c>
       <c r="U2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
@@ -1265,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1291,22 +1303,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1327,10 +1339,10 @@
   <sheetData>
     <row r="1" spans="2:10">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
